--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Premiere Shop 2007 (PMPS07).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Premiere Shop 2007 (PMPS07).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,105 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>森</t>
+          <t>('森', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Basic Land — Forest</t>
+          <t>('島', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>({T}: Add {G}.)</t>
+          <t>('山', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>島</t>
+          <t>('平地', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Basic Land — Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Basic Land — Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>({T}: Add {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>平地</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Basic Land — Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>({T}: Add {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>沼</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Basic Land — Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>({T}: Add {B}.)</t>
+          <t>('沼', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
